--- a/Excel/Excel Formulae.xlsx
+++ b/Excel/Excel Formulae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesha\OneDrive\Desktop\Data Science\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C787534C-E860-43E7-8E29-3D3EDB3B4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDC093E-FA5D-433C-93C8-8480D10E8FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="8" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1353,8 +1353,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2123,12 +2123,22 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2440,13 +2450,23 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2791,13 +2811,21 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3149,13 +3177,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -4313,11 +4350,24 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
